--- a/CS275 - Group 1 - Project Tracker.xlsx
+++ b/CS275 - Group 1 - Project Tracker.xlsx
@@ -17,17 +17,17 @@
     <sheet state="visible" name="Ian" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Backlog!$B$7:$R$17</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Backlog!$B$7:$R$26</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Tracker!$B$7:$S$7</definedName>
     <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">Impediment!$B$7:$L$7</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">Retrospective!$B$7:$H$8</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">Retrospective!$B$7:$H$11</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="214">
   <si>
     <t>See</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>9/20/21-10/1/21</t>
+    <t>10/04/21-10/15/21</t>
   </si>
   <si>
     <t>Replit</t>
@@ -65,27 +65,27 @@
     <t>Scrum Master</t>
   </si>
   <si>
+    <t>Ian Utz</t>
+  </si>
+  <si>
+    <t>Team #</t>
+  </si>
+  <si>
+    <t>Developers</t>
+  </si>
+  <si>
+    <t>Joshua Bowman</t>
+  </si>
+  <si>
+    <t>Will Oberholtzer</t>
+  </si>
+  <si>
+    <t>Sean Sharo</t>
+  </si>
+  <si>
     <t>Rachel Grossbauer</t>
   </si>
   <si>
-    <t>Team #</t>
-  </si>
-  <si>
-    <t>Developers</t>
-  </si>
-  <si>
-    <t>Joshua Bowman</t>
-  </si>
-  <si>
-    <t>Will Oberholtzer</t>
-  </si>
-  <si>
-    <t>Sean Sharo</t>
-  </si>
-  <si>
-    <t>Ian Utz</t>
-  </si>
-  <si>
     <t>Epic</t>
   </si>
   <si>
@@ -131,13 +131,16 @@
     <t>20/Sept/21</t>
   </si>
   <si>
-    <t>in progress</t>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Set up all necessary classes for our garage and worked on those classes all week</t>
   </si>
   <si>
     <t>Spr. 1.1</t>
   </si>
   <si>
-    <t xml:space="preserve"> Two user stories completed, 3 to go unless we think of more</t>
+    <t>All user stories/goals completed</t>
   </si>
   <si>
     <t>Rachel</t>
@@ -146,9 +149,18 @@
     <t>Daily Customer Functionality</t>
   </si>
   <si>
+    <t>Welcome Screen and Check In New Customer</t>
+  </si>
+  <si>
     <t>Spr. 1.2</t>
   </si>
   <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Connected Kiosk to ParkingGarage successfully</t>
+  </si>
+  <si>
     <t>Ian</t>
   </si>
   <si>
@@ -239,9 +251,6 @@
     <t>Highest</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>Assign teammates things to get done</t>
   </si>
   <si>
@@ -266,15 +275,12 @@
     <t>Discuss with teammates the different classes we need and create them</t>
   </si>
   <si>
-    <t>Sean and Ian</t>
+    <t>Everyone</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>Developer</t>
   </si>
   <si>
@@ -287,7 +293,7 @@
     <t>Take some notes down with the team in our team meeting</t>
   </si>
   <si>
-    <t>Everyone</t>
+    <t>Low</t>
   </si>
   <si>
     <t>Write more user stories</t>
@@ -344,6 +350,9 @@
     <t>Data shows how many spots are available.</t>
   </si>
   <si>
+    <t>Moving to Sprint 3</t>
+  </si>
+  <si>
     <t>Frequent Customer</t>
   </si>
   <si>
@@ -356,6 +365,102 @@
     <t>those who pay frequently and use often can have reserved spot</t>
   </si>
   <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>be able to know where a certain vehicle is</t>
+  </si>
+  <si>
+    <t>management can keep track of all the vehicles in the lot</t>
+  </si>
+  <si>
+    <t>if a vehicle is in a spot, there should be a directory to tell which spot</t>
+  </si>
+  <si>
+    <t>Disabled customer</t>
+  </si>
+  <si>
+    <t>Have handicap parking</t>
+  </si>
+  <si>
+    <t>Spots can be handicap accessible</t>
+  </si>
+  <si>
+    <t>Elements in array are reserved for disabled people</t>
+  </si>
+  <si>
+    <t>Ian and Josh</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>know how busy the lot is</t>
+  </si>
+  <si>
+    <t>I do not search for hours</t>
+  </si>
+  <si>
+    <t>Tracker of spots available</t>
+  </si>
+  <si>
+    <t>maximize each class</t>
+  </si>
+  <si>
+    <t>code is crisp and takes less computing</t>
+  </si>
+  <si>
+    <t>Anything that makes Classes more concise</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Know the time that I clock in and out</t>
+  </si>
+  <si>
+    <t>I am charged the correct amount</t>
+  </si>
+  <si>
+    <t>Put in the check in time and check out time for each customer</t>
+  </si>
+  <si>
+    <t>Have a welcome screen</t>
+  </si>
+  <si>
+    <t>I know prices before entering parking garage</t>
+  </si>
+  <si>
+    <t>Instantiate the Kiosk class and have it be an instance in the main</t>
+  </si>
+  <si>
+    <t>Know where the handicap spots are</t>
+  </si>
+  <si>
+    <t>I can easily access them</t>
+  </si>
+  <si>
+    <t>Build prebuilt handicap spots for every floor</t>
+  </si>
+  <si>
+    <t>Differentiate different types of customers</t>
+  </si>
+  <si>
+    <t>I can proces their payments correctly</t>
+  </si>
+  <si>
+    <t>In main, use an if else function to path a difference between new and existing customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have the kiosk collect payments </t>
+  </si>
+  <si>
+    <t>I can receive a payment each time someone enters the garage</t>
+  </si>
+  <si>
+    <t>Create a scanner in the kiosk that collects money</t>
+  </si>
+  <si>
     <t>Sprint Tracker</t>
   </si>
   <si>
@@ -464,6 +569,30 @@
     <t>Start writing the actual code</t>
   </si>
   <si>
+    <t>Finish up being scrum master</t>
+  </si>
+  <si>
+    <t>Pass off the job to Ian</t>
+  </si>
+  <si>
+    <t>Being scrum master</t>
+  </si>
+  <si>
+    <t>Finshing up the classes</t>
+  </si>
+  <si>
+    <t>Checking in a new customer</t>
+  </si>
+  <si>
+    <t>Check In a New Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussing checking for returning customers </t>
+  </si>
+  <si>
+    <t>Being Scrum master</t>
+  </si>
+  <si>
     <t>Reports &amp; Dashboards</t>
   </si>
   <si>
@@ -509,24 +638,50 @@
     <t>Run the Thursday meeting</t>
   </si>
   <si>
+    <t>Assignments for the week (Sprint 2)</t>
+  </si>
+  <si>
+    <t>Work on the Kiosk Class to instantiate it into the main</t>
+  </si>
+  <si>
+    <t>All work together on checking a new customer into the parking garage array and finalizing the check in process for a new customer</t>
+  </si>
+  <si>
+    <t>Assignments for the week (Sprint 3)</t>
+  </si>
+  <si>
     <t>Think about user story #4</t>
   </si>
   <si>
     <t>User story #5</t>
   </si>
   <si>
+    <t>Work on the ParkingSpot class to set certain spots to be handicap</t>
+  </si>
+  <si>
     <t>User story #3</t>
+  </si>
+  <si>
+    <t>Work on putting in the calender class into the main</t>
+  </si>
+  <si>
+    <t>Finish out payment whenever a new customer enters the parking garage</t>
+  </si>
+  <si>
+    <t>Helping Josh with setting certain handicap spots</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-14009]dd/mmm/yy"/>
-    <numFmt numFmtId="165" formatCode="m/d/yy"/>
+    <numFmt numFmtId="165" formatCode="d/mmm/yy"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
@@ -574,10 +729,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="10.0"/>
       <color theme="1"/>
@@ -608,7 +759,10 @@
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -709,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -742,14 +896,11 @@
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -774,7 +925,7 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
@@ -782,11 +933,14 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
@@ -809,25 +963,22 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -839,22 +990,19 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="9" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -866,21 +1014,24 @@
     <xf borderId="1" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="11" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -997,11 +1148,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1271587835"/>
-        <c:axId val="534249397"/>
+        <c:axId val="862799501"/>
+        <c:axId val="1761272389"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1271587835"/>
+        <c:axId val="862799501"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,10 +1204,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534249397"/>
+        <c:crossAx val="1761272389"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="534249397"/>
+        <c:axId val="1761272389"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1282,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1271587835"/>
+        <c:crossAx val="862799501"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1241,11 +1392,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="268048069"/>
-        <c:axId val="16894690"/>
+        <c:axId val="257225409"/>
+        <c:axId val="1762541648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="268048069"/>
+        <c:axId val="257225409"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,10 +1448,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16894690"/>
+        <c:crossAx val="1762541648"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16894690"/>
+        <c:axId val="1762541648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1526,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268048069"/>
+        <c:crossAx val="257225409"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1477,11 +1628,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1634508076"/>
-        <c:axId val="1913319999"/>
+        <c:axId val="857490906"/>
+        <c:axId val="782222900"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1634508076"/>
+        <c:axId val="857490906"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,10 +1684,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1913319999"/>
+        <c:crossAx val="782222900"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1913319999"/>
+        <c:axId val="782222900"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,7 +1762,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1634508076"/>
+        <c:crossAx val="857490906"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -2044,7 +2195,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1"/>
@@ -2103,7 +2254,7 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="B15" s="10"/>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="10"/>
@@ -2135,74 +2286,74 @@
     <row r="20" ht="12.75" customHeight="1"/>
     <row r="21" ht="12.75" customHeight="1"/>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="B22" s="15"/>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="K23" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21" t="s">
+      <c r="H24" s="19"/>
+      <c r="I24" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M24" s="21" t="s">
+      <c r="M24" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="O24" s="21" t="s">
+      <c r="O24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P24" s="22" t="s">
+      <c r="P24" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="B25" s="13">
@@ -2211,40 +2362,42 @@
       <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="23">
         <v>44470.0</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="I25" s="26" t="s">
+      <c r="G25" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="24">
+      <c r="I25" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="23">
         <v>44459.0</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="26">
         <f t="shared" ref="K25:K30" si="1">J25+11</f>
         <v>44470</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M25" s="28">
+      <c r="M25" s="22">
         <v>5.0</v>
       </c>
-      <c r="N25" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="O25" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="P25" s="23" t="s">
+      <c r="N25" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="O25" s="22" t="s">
         <v>37</v>
+      </c>
+      <c r="P25" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -2252,29 +2405,45 @@
         <v>2.0</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="25"/>
-      <c r="I26" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="27">
+      <c r="D26" s="27">
+        <v>44473.0</v>
+      </c>
+      <c r="E26" s="27">
+        <v>44484.0</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="26">
         <f t="shared" ref="J26:J30" si="2">K25+3</f>
         <v>44473</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="26">
         <f t="shared" si="1"/>
         <v>44484</v>
       </c>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="23" t="s">
-        <v>40</v>
+      <c r="L26" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="22">
+        <v>10.0</v>
+      </c>
+      <c r="N26" s="22">
+        <v>10.0</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -2282,29 +2451,29 @@
         <v>3.0</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="25"/>
-      <c r="I27" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="27">
+        <v>45</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="I27" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="26">
         <f t="shared" si="2"/>
         <v>44487</v>
       </c>
-      <c r="K27" s="27">
+      <c r="K27" s="26">
         <f t="shared" si="1"/>
         <v>44498</v>
       </c>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="23" t="s">
-        <v>43</v>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="22" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -2312,29 +2481,29 @@
         <v>4.0</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="25"/>
-      <c r="I28" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" s="27">
+        <v>48</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="I28" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="26">
         <f t="shared" si="2"/>
         <v>44501</v>
       </c>
-      <c r="K28" s="27">
+      <c r="K28" s="26">
         <f t="shared" si="1"/>
         <v>44512</v>
       </c>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="23" t="s">
-        <v>46</v>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="22" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -2342,199 +2511,199 @@
         <v>5.0</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="25"/>
-      <c r="I29" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29" s="27">
+        <v>51</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="I29" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="26">
         <f t="shared" si="2"/>
         <v>44515</v>
       </c>
-      <c r="K29" s="27">
+      <c r="K29" s="26">
         <f t="shared" si="1"/>
         <v>44526</v>
       </c>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="23" t="s">
-        <v>43</v>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="22" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="25"/>
-      <c r="I30" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="27">
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="I30" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="26">
         <f t="shared" si="2"/>
         <v>44529</v>
       </c>
-      <c r="K30" s="27">
+      <c r="K30" s="26">
         <f t="shared" si="1"/>
         <v>44540</v>
       </c>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="23" t="s">
-        <v>50</v>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="22" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="25"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="23" t="s">
-        <v>51</v>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="25"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="23" t="s">
-        <v>51</v>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="25"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="23" t="s">
-        <v>51</v>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="25"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="23" t="s">
-        <v>51</v>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="25"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="23" t="s">
-        <v>51</v>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="25"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="23" t="s">
-        <v>51</v>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="25"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
       <c r="I37" s="13"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="23" t="s">
-        <v>51</v>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="25"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="23" t="s">
-        <v>51</v>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -2542,17 +2711,17 @@
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="25"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="23" t="s">
-        <v>51</v>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -2560,17 +2729,17 @@
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="25"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
       <c r="I40" s="13"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="23" t="s">
-        <v>51</v>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -3558,18 +3727,38 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="63" t="s">
-        <v>155</v>
+      <c r="A1" s="62" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="64" t="s">
-        <v>160</v>
+      <c r="A2" s="62" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="64" t="s">
-        <v>162</v>
+      <c r="A3" s="62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="62" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3588,18 +3777,38 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="63" t="s">
-        <v>155</v>
+      <c r="A1" s="62" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="64" t="s">
-        <v>160</v>
+      <c r="A2" s="62" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="64" t="s">
-        <v>161</v>
+      <c r="A3" s="62" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="62" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="62" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3618,18 +3827,38 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="64" t="s">
-        <v>155</v>
+      <c r="A1" s="62" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="64" t="s">
-        <v>160</v>
+      <c r="A2" s="62" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="64" t="s">
-        <v>162</v>
+      <c r="A3" s="62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="62" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="62" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3694,7 +3923,7 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
@@ -3708,66 +3937,66 @@
       <c r="H6" s="30"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="18"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J7" s="32" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="M7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="B8" s="34">
@@ -3778,22 +4007,22 @@
         <v>11</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -3813,22 +4042,22 @@
         <v>11</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -3848,22 +4077,22 @@
         <v>11</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -3880,25 +4109,25 @@
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>86</v>
-      </c>
       <c r="I11" s="5" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -3910,30 +4139,30 @@
       <c r="R11" s="13"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="B12" s="38">
+      <c r="B12" s="37">
         <v>5.0</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="38" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="F12" s="37" t="s">
         <v>90</v>
       </c>
+      <c r="G12" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="I12" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -3950,18 +4179,18 @@
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="25"/>
+        <v>95</v>
+      </c>
+      <c r="H13" s="29"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -3974,23 +4203,23 @@
       <c r="R13" s="13"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="B14" s="40">
+      <c r="B14" s="39">
         <v>7.0</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="43" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="25"/>
+      <c r="F14" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="29"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
@@ -4008,18 +4237,18 @@
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="25"/>
+        <v>102</v>
+      </c>
+      <c r="H15" s="29"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
@@ -4032,25 +4261,31 @@
       <c r="R15" s="13"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="B16" s="44">
+      <c r="B16" s="43">
         <v>9.0</v>
       </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>102</v>
+      <c r="D16" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>104</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+        <v>106</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -4066,18 +4301,18 @@
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="34" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="25"/>
+        <v>111</v>
+      </c>
+      <c r="H17" s="29"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -4090,14 +4325,26 @@
       <c r="R17" s="13"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="B18" s="34"/>
+      <c r="B18" s="34">
+        <v>11.0</v>
+      </c>
       <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="13"/>
+      <c r="D18" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -4109,15 +4356,31 @@
       <c r="R18" s="13"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="B19" s="35"/>
+      <c r="B19" s="34">
+        <v>12.0</v>
+      </c>
       <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="D19" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
@@ -4128,14 +4391,28 @@
       <c r="R19" s="13"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="B20" s="35"/>
+      <c r="B20" s="34">
+        <v>13.0</v>
+      </c>
       <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="13"/>
+      <c r="D20" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -4147,14 +4424,28 @@
       <c r="R20" s="13"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="B21" s="35"/>
+      <c r="B21" s="34">
+        <v>14.0</v>
+      </c>
       <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="13"/>
+      <c r="D21" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -4166,15 +4457,31 @@
       <c r="R21" s="13"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="B22" s="35"/>
+      <c r="B22" s="34">
+        <v>15.0</v>
+      </c>
       <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="D22" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -4185,15 +4492,31 @@
       <c r="R22" s="13"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="B23" s="35"/>
+      <c r="B23" s="34">
+        <v>16.0</v>
+      </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="D23" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
@@ -4204,15 +4527,31 @@
       <c r="R23" s="13"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="B24" s="35"/>
+      <c r="B24" s="34">
+        <v>17.0</v>
+      </c>
       <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="D24" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
@@ -4223,15 +4562,31 @@
       <c r="R24" s="13"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="B25" s="35"/>
+      <c r="B25" s="34">
+        <v>18.0</v>
+      </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="D25" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
@@ -4242,15 +4597,31 @@
       <c r="R25" s="13"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="B26" s="35"/>
+      <c r="B26" s="34">
+        <v>19.0</v>
+      </c>
       <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="D26" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
@@ -4264,10 +4635,10 @@
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="25"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -10124,9 +10495,9 @@
       <c r="H1001" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="$B$7:$R$17">
-    <sortState ref="B7:R17">
-      <sortCondition ref="B7:B17"/>
+  <autoFilter ref="$B$7:$R$26">
+    <sortState ref="B7:R26">
+      <sortCondition ref="B7:B26"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B8:J117">
@@ -10168,72 +10539,72 @@
     <row r="4" ht="12.75" customHeight="1"/>
     <row r="5" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J5" s="47"/>
-      <c r="N5" s="47"/>
+        <v>144</v>
+      </c>
+      <c r="J5" s="46"/>
+      <c r="N5" s="46"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="B6" s="3"/>
-      <c r="J6" s="47"/>
-      <c r="N6" s="47" t="s">
-        <v>110</v>
+      <c r="J6" s="46"/>
+      <c r="N6" s="46" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" ht="42.0" customHeight="1">
       <c r="B7" s="32" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="L7" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="N7" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="O7" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q7" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="R7" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="S7" s="49" t="s">
-        <v>122</v>
+      <c r="G7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q7" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="R7" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="S7" s="48" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -10243,39 +10614,45 @@
       <c r="C8" s="13">
         <v>221.0</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="28">
+      <c r="D8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="22">
         <v>5.0</v>
       </c>
-      <c r="H8" s="50">
-        <v>2.0</v>
-      </c>
-      <c r="I8" s="51">
+      <c r="H8" s="49">
+        <v>5.0</v>
+      </c>
+      <c r="I8" s="50">
         <f t="shared" ref="I8:I36" si="1">G8-H8</f>
-        <v>3</v>
-      </c>
-      <c r="J8" s="29">
+        <v>0</v>
+      </c>
+      <c r="J8" s="28">
         <v>1.0</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29">
+      <c r="K8" s="28"/>
+      <c r="L8" s="28">
         <v>1.0</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="O8" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="B9" s="13">
@@ -10284,31 +10661,51 @@
       <c r="C9" s="13">
         <v>224.0</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="50">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="51">
+      <c r="D9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="22">
+        <v>10.0</v>
+      </c>
+      <c r="H9" s="49">
+        <v>10.0</v>
+      </c>
+      <c r="I9" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
+      <c r="J9" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K9" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="N9" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="O9" s="28"/>
+      <c r="P9" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R9" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="S9" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="B10" s="13">
@@ -10317,31 +10714,31 @@
       <c r="C10" s="13">
         <v>225.0</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>43</v>
+      <c r="D10" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="50">
+      <c r="G10" s="28"/>
+      <c r="H10" s="49">
         <v>0.0</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="B11" s="13">
@@ -10350,31 +10747,31 @@
       <c r="C11" s="13">
         <v>229.0</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>127</v>
+      <c r="D11" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="50">
+      <c r="G11" s="28"/>
+      <c r="H11" s="49">
         <v>0.0</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="B12" s="13">
@@ -10383,31 +10780,31 @@
       <c r="C12" s="13">
         <v>251.0</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>43</v>
+      <c r="D12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="50">
+      <c r="G12" s="28"/>
+      <c r="H12" s="49">
         <v>0.0</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="B13" s="13">
@@ -10416,31 +10813,31 @@
       <c r="C13" s="13">
         <v>253.0</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>50</v>
+      <c r="D13" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="50">
+      <c r="G13" s="28"/>
+      <c r="H13" s="49">
         <v>0.0</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="52"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="B14" s="13"/>
@@ -10448,25 +10845,25 @@
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="51">
+      <c r="G14" s="28"/>
+      <c r="H14" s="50">
         <f t="shared" ref="H14:H36" si="2">SUM(J14:S14)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="B15" s="13"/>
@@ -10474,25 +10871,25 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="51">
+      <c r="G15" s="28"/>
+      <c r="H15" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="B16" s="13"/>
@@ -10500,25 +10897,25 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="51">
+      <c r="G16" s="28"/>
+      <c r="H16" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="B17" s="13"/>
@@ -10526,25 +10923,25 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="51">
+      <c r="G17" s="28"/>
+      <c r="H17" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="B18" s="13"/>
@@ -10552,25 +10949,25 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="51">
+      <c r="G18" s="28"/>
+      <c r="H18" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="B19" s="13"/>
@@ -10578,25 +10975,25 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="51">
+      <c r="G19" s="28"/>
+      <c r="H19" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I19" s="51">
+      <c r="I19" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="B20" s="13"/>
@@ -10604,25 +11001,25 @@
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="51">
+      <c r="G20" s="28"/>
+      <c r="H20" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I20" s="51">
+      <c r="I20" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="B21" s="13"/>
@@ -10630,25 +11027,25 @@
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="51">
+      <c r="G21" s="28"/>
+      <c r="H21" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I21" s="51">
+      <c r="I21" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="B22" s="13"/>
@@ -10656,25 +11053,25 @@
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="51">
+      <c r="G22" s="28"/>
+      <c r="H22" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I22" s="51">
+      <c r="I22" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="B23" s="13"/>
@@ -10682,25 +11079,25 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="51">
+      <c r="G23" s="28"/>
+      <c r="H23" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I23" s="51">
+      <c r="I23" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="B24" s="13"/>
@@ -10708,25 +11105,25 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="51">
+      <c r="G24" s="28"/>
+      <c r="H24" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I24" s="51">
+      <c r="I24" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="B25" s="13"/>
@@ -10734,25 +11131,25 @@
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="51">
+      <c r="G25" s="28"/>
+      <c r="H25" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="B26" s="13"/>
@@ -10760,25 +11157,25 @@
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="51">
+      <c r="G26" s="28"/>
+      <c r="H26" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="B27" s="13"/>
@@ -10786,25 +11183,25 @@
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="51">
+      <c r="G27" s="28"/>
+      <c r="H27" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="B28" s="13"/>
@@ -10812,25 +11209,25 @@
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="51">
+      <c r="G28" s="28"/>
+      <c r="H28" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I28" s="51">
+      <c r="I28" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="B29" s="13"/>
@@ -10838,25 +11235,25 @@
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="51">
+      <c r="G29" s="28"/>
+      <c r="H29" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="B30" s="13"/>
@@ -10864,25 +11261,25 @@
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="51">
+      <c r="G30" s="28"/>
+      <c r="H30" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I30" s="51">
+      <c r="I30" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="B31" s="13"/>
@@ -10890,25 +11287,25 @@
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="51">
+      <c r="G31" s="28"/>
+      <c r="H31" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I31" s="51">
+      <c r="I31" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="B32" s="13"/>
@@ -10916,25 +11313,25 @@
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="51">
+      <c r="G32" s="28"/>
+      <c r="H32" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I32" s="51">
+      <c r="I32" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="B33" s="13"/>
@@ -10942,25 +11339,25 @@
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="51">
+      <c r="G33" s="28"/>
+      <c r="H33" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I33" s="51">
+      <c r="I33" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="B34" s="13"/>
@@ -10968,25 +11365,25 @@
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="51">
+      <c r="G34" s="28"/>
+      <c r="H34" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I34" s="51">
+      <c r="I34" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="B35" s="13"/>
@@ -10994,25 +11391,25 @@
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="51">
+      <c r="G35" s="28"/>
+      <c r="H35" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I35" s="51">
+      <c r="I35" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="B36" s="13"/>
@@ -11020,230 +11417,230 @@
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="51">
+      <c r="G36" s="28"/>
+      <c r="H36" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I36" s="51">
+      <c r="I36" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38" s="57">
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="55">
         <f t="shared" ref="G38:S38" si="3">SUBTOTAL(9,G7:G35)</f>
-        <v>5</v>
-      </c>
-      <c r="H38" s="57">
+        <v>15</v>
+      </c>
+      <c r="H38" s="55">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I38" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="55">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I38" s="57">
+      <c r="K38" s="55">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="J38" s="57">
+        <v>2</v>
+      </c>
+      <c r="L38" s="55">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K38" s="57">
+      <c r="M38" s="55">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="57">
+        <v>2</v>
+      </c>
+      <c r="N38" s="55">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O38" s="55">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M38" s="57">
+      <c r="P38" s="55">
         <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="55">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R38" s="55">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S38" s="55">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55">
+        <f>G38-J38</f>
+        <v>13</v>
+      </c>
+      <c r="K39" s="55">
+        <f t="shared" ref="K39:S39" si="4">J39-K38</f>
+        <v>11</v>
+      </c>
+      <c r="L39" s="55">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M39" s="55">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N39" s="55">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O39" s="55">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P39" s="55">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q39" s="55">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R39" s="55">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S39" s="55">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N38" s="57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S38" s="57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57">
-        <f>G38-J38</f>
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55">
+        <f>J38</f>
+        <v>2</v>
+      </c>
+      <c r="K40" s="55">
+        <f t="shared" ref="K40:S40" si="5">J40+K38</f>
         <v>4</v>
       </c>
-      <c r="K39" s="57">
-        <f t="shared" ref="K39:S39" si="4">J39-K38</f>
-        <v>4</v>
-      </c>
-      <c r="L39" s="57">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M39" s="57">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="N39" s="57">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O39" s="57">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="P39" s="57">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="Q39" s="57">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="R39" s="57">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="S39" s="57">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57">
-        <f>J38</f>
-        <v>1</v>
-      </c>
-      <c r="K40" s="57">
-        <f t="shared" ref="K40:S40" si="5">J40+K38</f>
-        <v>1</v>
-      </c>
-      <c r="L40" s="57">
+      <c r="L40" s="55">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M40" s="57">
+        <v>5</v>
+      </c>
+      <c r="M40" s="55">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="N40" s="57">
+        <v>7</v>
+      </c>
+      <c r="N40" s="55">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="O40" s="57">
+        <v>9</v>
+      </c>
+      <c r="O40" s="55">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="P40" s="57">
+        <v>10</v>
+      </c>
+      <c r="P40" s="55">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="Q40" s="57">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="55">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="R40" s="57">
+        <v>13</v>
+      </c>
+      <c r="R40" s="55">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="S40" s="57">
+        <v>14</v>
+      </c>
+      <c r="S40" s="55">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="55"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
     </row>
     <row r="42" ht="12.75" customHeight="1"/>
     <row r="43" ht="12.75" customHeight="1"/>
@@ -12244,7 +12641,7 @@
     <row r="4" ht="12.75" customHeight="1"/>
     <row r="5" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -12258,28 +12655,28 @@
         <v>23</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="F7" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="L7" s="32" t="s">
         <v>27</v>
@@ -13755,7 +14152,7 @@
     <row r="4" ht="12.75" customHeight="1"/>
     <row r="5" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -13769,65 +14166,95 @@
         <v>5</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="B8" s="14">
+      <c r="B8" s="5">
         <v>1.0</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="56">
         <v>44461.0</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>144</v>
+      <c r="D8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="57">
+        <v>44470.0</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="H9" s="13"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="56">
+        <v>44473.0</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="56">
+        <v>44484.0</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="H11" s="13"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -15020,7 +15447,7 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$B$7:$H$8"/>
+  <autoFilter ref="$B$7:$H$11"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
@@ -15048,13 +15475,13 @@
     <row r="4" ht="12.75" customHeight="1"/>
     <row r="5" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1"/>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="B7" s="59" t="s">
-        <v>146</v>
+      <c r="B7" s="58" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1"/>
@@ -15080,11 +15507,11 @@
     <row r="28" ht="12.75" customHeight="1"/>
     <row r="29" ht="12.75" customHeight="1"/>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="B30" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="K30" s="59" t="s">
-        <v>148</v>
+      <c r="B30" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" s="58" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1"/>
@@ -16090,143 +16517,143 @@
     <row r="4" ht="12.75" customHeight="1"/>
     <row r="5" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1"/>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="B7" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>151</v>
+      <c r="B7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="60" t="s">
+      <c r="C8" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="60" t="s">
-        <v>152</v>
+      <c r="F8" s="59" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="B9" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="61"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="B27" s="13"/>
@@ -17254,28 +17681,48 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="63" t="s">
-        <v>155</v>
+      <c r="A1" s="62" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="64" t="s">
-        <v>156</v>
+      <c r="A2" s="62" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="63" t="s">
-        <v>157</v>
+      <c r="A3" s="62" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="64" t="s">
-        <v>158</v>
+      <c r="A4" s="62" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="64" t="s">
-        <v>159</v>
+      <c r="A5" s="62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="62" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="62" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -17294,18 +17741,38 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="63" t="s">
-        <v>155</v>
+      <c r="A1" s="62" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="64" t="s">
-        <v>160</v>
+      <c r="A2" s="62" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="64" t="s">
-        <v>161</v>
+      <c r="A3" s="62" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="62" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
